--- a/chunkSizeTesting/results_embeding_model_0_8_threshold.xlsx
+++ b/chunkSizeTesting/results_embeding_model_0_8_threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\chunkSizeTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118422AD-25F4-4D0B-99EC-524B489D3D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F0B3EB-5A63-4B4F-A3D3-3AB4364F0EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F549E343-D7A8-4AB6-9A3C-6E43F589709C}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
-    <t>Pontosság(%)</t>
-  </si>
-  <si>
     <t>Küszöbérték</t>
   </si>
   <si>
@@ -59,13 +56,16 @@
     <t>Chunk (darab) száma</t>
   </si>
   <si>
-    <t>LLM model</t>
+    <t>Top k</t>
   </si>
   <si>
-    <t>Átlagos feldolgozási idő</t>
+    <t>Pontosság (%)</t>
   </si>
   <si>
-    <t>Top k</t>
+    <t>LLM modell</t>
+  </si>
+  <si>
+    <t>Átlagos feldolgozási idő (s)</t>
   </si>
 </sst>
 </file>
@@ -128,22 +128,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -481,7 +476,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,439 +490,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="1">
+        <v>256</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.82068232297897337</v>
+      </c>
+      <c r="E2" s="1">
+        <v>139</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>384</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.133719515800476</v>
+      </c>
+      <c r="E3" s="1">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>512</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.71890563964843746</v>
+      </c>
+      <c r="E4" s="1">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>768</v>
+      </c>
+      <c r="C5" s="2">
+        <v>90</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.76990941762924192</v>
+      </c>
+      <c r="E5" s="2">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C6" s="2">
+        <v>95</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.98632147312164309</v>
+      </c>
+      <c r="E6" s="2">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2048</v>
+      </c>
+      <c r="C7" s="2">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.87599461078643803</v>
+      </c>
+      <c r="E7" s="2">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B8" s="2">
         <v>256</v>
       </c>
-      <c r="C2" s="6">
-        <v>100</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.82068232297897337</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96533230543136594</v>
+      </c>
+      <c r="E8" s="2">
         <v>139</v>
       </c>
-      <c r="F2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="F8" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B9" s="2">
         <v>384</v>
       </c>
-      <c r="C3" s="6">
-        <v>100</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.133719515800476</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.87807005643844604</v>
+      </c>
+      <c r="E9" s="2">
         <v>101</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G3" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="F9" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B10" s="2">
         <v>512</v>
       </c>
-      <c r="C4" s="6">
-        <v>100</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.71890563964843746</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.044851267337799</v>
+      </c>
+      <c r="E10" s="2">
         <v>83</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="F10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B11" s="2">
         <v>768</v>
       </c>
-      <c r="C5" s="5">
-        <v>90</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.76990941762924192</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.91235800981521609</v>
+      </c>
+      <c r="E11" s="2">
         <v>66</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B12" s="2">
         <v>1024</v>
       </c>
-      <c r="C6" s="5">
-        <v>95</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.98632147312164309</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.88460564613342285</v>
+      </c>
+      <c r="E12" s="2">
         <v>61</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B13" s="2">
         <v>2048</v>
       </c>
-      <c r="C7" s="5">
-        <v>95</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.87599461078643803</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.84950510263442991</v>
+      </c>
+      <c r="E13" s="2">
         <v>52</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="F13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B14" s="2">
         <v>256</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.96533230543136594</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.87853235006332397</v>
+      </c>
+      <c r="E14" s="2">
         <v>139</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G8" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="F14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B15" s="2">
         <v>384</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
-        <v>0.87807005643844604</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D15" s="2">
+        <v>0.92241722345352173</v>
+      </c>
+      <c r="E15" s="2">
         <v>101</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="F15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B16" s="2">
         <v>512</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.044851267337799</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.87172975540161135</v>
+      </c>
+      <c r="E16" s="2">
         <v>83</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="F16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B17" s="2">
         <v>768</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.91235800981521609</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.71263214349746706</v>
+      </c>
+      <c r="E17" s="2">
         <v>66</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="F17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B18" s="2">
         <v>1024</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.88460564613342285</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.73357349634170532</v>
+      </c>
+      <c r="E18" s="2">
         <v>61</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="F18" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B19" s="2">
         <v>2048</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.84950510263442991</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.0576621294021611</v>
+      </c>
+      <c r="E19" s="2">
         <v>52</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4">
-        <v>256</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.87853235006332397</v>
-      </c>
-      <c r="E14" s="5">
-        <v>139</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>384</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.92241722345352173</v>
-      </c>
-      <c r="E15" s="5">
-        <v>101</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3">
-        <v>512</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.87172975540161135</v>
-      </c>
-      <c r="E16" s="5">
-        <v>83</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>768</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.71263214349746706</v>
-      </c>
-      <c r="E17" s="5">
-        <v>66</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G17" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1024</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.73357349634170532</v>
-      </c>
-      <c r="E18" s="5">
-        <v>61</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2048</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1.0576621294021611</v>
-      </c>
-      <c r="E19" s="5">
-        <v>52</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="2">
         <v>10</v>
       </c>
     </row>
